--- a/react-shopping-cart/Task_management_for_react_shopping_cart_project.xlsx
+++ b/react-shopping-cart/Task_management_for_react_shopping_cart_project.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\react-shopping-cart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\React\react-shopping-cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -179,7 +179,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,7 +483,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -529,13 +529,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D3">
@@ -552,14 +552,14 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
+      <c r="C4" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -576,14 +576,14 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
+      <c r="C5" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="D5">
         <v>3</v>

--- a/react-shopping-cart/Task_management_for_react_shopping_cart_project.xlsx
+++ b/react-shopping-cart/Task_management_for_react_shopping_cart_project.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Features</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Active</t>
   </si>
 </sst>
 </file>
@@ -170,7 +173,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,6 +183,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -196,10 +205,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,7 +493,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -589,26 +599,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6">
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -619,10 +629,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>

--- a/react-shopping-cart/Task_management_for_react_shopping_cart_project.xlsx
+++ b/react-shopping-cart/Task_management_for_react_shopping_cart_project.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>Features</t>
   </si>
@@ -147,9 +147,6 @@
   </si>
   <si>
     <t>Done</t>
-  </si>
-  <si>
-    <t>Active</t>
   </si>
 </sst>
 </file>
@@ -188,7 +185,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,28 +597,28 @@
       </c>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>41</v>
+      <c r="C6" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="D6" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
-        <v>6</v>
+      <c r="C7" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="D7">
         <v>2</v>

--- a/react-shopping-cart/Task_management_for_react_shopping_cart_project.xlsx
+++ b/react-shopping-cart/Task_management_for_react_shopping_cart_project.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Features</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Active</t>
   </si>
 </sst>
 </file>
@@ -170,7 +173,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,6 +192,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -202,11 +211,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,7 +500,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -625,13 +635,13 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D8">
@@ -639,14 +649,14 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C9" t="s">
-        <v>6</v>
+      <c r="C9" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="D9">
         <v>3</v>

--- a/react-shopping-cart/Task_management_for_react_shopping_cart_project.xlsx
+++ b/react-shopping-cart/Task_management_for_react_shopping_cart_project.xlsx
@@ -500,7 +500,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -642,65 +642,65 @@
         <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>41</v>
+      <c r="C9" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s">
-        <v>6</v>
+      <c r="C10" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C11" t="s">
-        <v>6</v>
+      <c r="C11" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="4">
         <v>3</v>
       </c>
     </row>

--- a/react-shopping-cart/Task_management_for_react_shopping_cart_project.xlsx
+++ b/react-shopping-cart/Task_management_for_react_shopping_cart_project.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>Features</t>
   </si>
@@ -147,9 +147,6 @@
   </si>
   <si>
     <t>Done</t>
-  </si>
-  <si>
-    <t>Active</t>
   </si>
 </sst>
 </file>
@@ -173,7 +170,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,12 +189,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -211,12 +202,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,7 +490,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -534,7 +524,7 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -555,7 +545,7 @@
       <c r="C3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -578,7 +568,7 @@
       <c r="C4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -602,7 +592,7 @@
       <c r="C5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>3</v>
       </c>
     </row>
@@ -616,7 +606,7 @@
       <c r="C6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>2</v>
       </c>
     </row>
@@ -630,7 +620,7 @@
       <c r="C7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>2</v>
       </c>
     </row>
@@ -644,7 +634,7 @@
       <c r="C8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>2</v>
       </c>
     </row>
@@ -658,7 +648,7 @@
       <c r="C9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>3</v>
       </c>
     </row>
@@ -672,7 +662,7 @@
       <c r="C10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>2</v>
       </c>
     </row>
@@ -686,35 +676,35 @@
       <c r="C11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13">
+      <c r="C13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="2">
         <v>3</v>
       </c>
     </row>

--- a/react-shopping-cart/Task_management_for_react_shopping_cart_project.xlsx
+++ b/react-shopping-cart/Task_management_for_react_shopping_cart_project.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Features</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Active</t>
   </si>
 </sst>
 </file>
@@ -170,7 +173,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,6 +192,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -202,11 +211,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,7 +500,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -709,16 +719,16 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14">
+      <c r="C14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="4">
         <v>3</v>
       </c>
     </row>

--- a/react-shopping-cart/Task_management_for_react_shopping_cart_project.xlsx
+++ b/react-shopping-cart/Task_management_for_react_shopping_cart_project.xlsx
@@ -500,7 +500,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -719,30 +719,30 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <v>2</v>
       </c>
     </row>

--- a/react-shopping-cart/Task_management_for_react_shopping_cart_project.xlsx
+++ b/react-shopping-cart/Task_management_for_react_shopping_cart_project.xlsx
@@ -500,7 +500,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -733,30 +733,30 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16">
+      <c r="D16" s="4">
         <v>3</v>
       </c>
     </row>
